--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_05_beg.xlsx
@@ -680,7 +680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vigna"]   "FBI! Open up!"
+    <t xml:space="preserve">[name="Vigna"]   'FBI! Open up!'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_05_beg.xlsx
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Goooaaaaaaaal!;……;Friends, you mustn’t be so rude to the courier.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Goooaaaaaaaal!;......;Friends, you mustn't be so rude to the courier.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="But you already kicked the door down…",values="1")]
+    <t xml:space="preserve">[Decision(options="But you already kicked the door down...",values="1")]
 </t>
   </si>
   <si>
